--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Example Patient Profile</t>
+    <t>Perfil Conteudo Receita</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T08:24:07+00:00</t>
+    <t>2022-07-14T09:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -732,7 +732,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://spms.min-saude.pt/bdnp/codesystem/med</t>
+    <t>http://spms.min-saude/pe/top/extensions/med-request-modality</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:12:07+00:00</t>
+    <t>2022-07-14T09:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:51:10+00:00</t>
+    <t>2022-07-14T10:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:13:19+00:00</t>
+    <t>2022-07-14T10:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:27:58+00:00</t>
+    <t>2022-07-14T10:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:47:14+00:00</t>
+    <t>2022-07-14T11:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="428">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:00:22+00:00</t>
+    <t>2022-07-14T11:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -607,7 +607,7 @@
     <t>duplicateOrder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/duplicate-order}
+    <t xml:space="preserve">Extension {http://spms.min-saude.pt/iop/extensions/prescription-duplicate}
 </t>
   </si>
   <si>
@@ -624,433 +624,227 @@
     <t>MeaningOrder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.com/fhir/example/StructureDefinition/meaning-order}
+    <t xml:space="preserve">Extension {http://spms.min-saude/pe/top/extensions/med-request-modality}
 </t>
   </si>
   <si>
-    <t>RequestGroup.extension.id</t>
-  </si>
-  <si>
-    <t>RequestGroup.extension.extension</t>
-  </si>
-  <si>
-    <t>RequestGroup.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://example.com/fhir/example/StructureDefinition/meaning-order</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>RequestGroup.extension.value[x]</t>
+    <t>RequestGroup.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>RequestGroup.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business identifier</t>
+  </si>
+  <si>
+    <t>Allows a service to provide a unique, business identifier for the request.</t>
+  </si>
+  <si>
+    <t>Allows identification of the request as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>RequestGroup.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>A canonical URL referencing a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this request.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>RequestGroup.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>A URL referencing an externally defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this request.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesUri</t>
+  </si>
+  <si>
+    <t>RequestGroup.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal, or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this request.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the request and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>RequestGroup.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+priorrenewed order</t>
+  </si>
+  <si>
+    <t>Request(s) replaced by this request</t>
+  </si>
+  <si>
+    <t>Completed or terminated request(s) whose function is taken by this new request.</t>
+  </si>
+  <si>
+    <t>The replacement could be because the initial request was immediately rejected (due to an issue) or because the previous request was completed, but the need for the action described by the request remains ongoing.</t>
+  </si>
+  <si>
+    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple requests.</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>RequestGroup.groupIdentifier</t>
+  </si>
+  <si>
+    <t>grouperid
+requisition</t>
+  </si>
+  <si>
+    <t>Composite request this is part of</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all requests that were authorized more or less simultaneously by a single author, representing the identifier of the requisition, prescription or similar form.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition.  Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Some business processes need to know if multiple items were ordered as part of the same "prescription" or "requisition" for billing or other purposes.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>RequestGroup.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The current state of the request. For request groups, the status reflects the status of all the requests in the group.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes identifying the lifecycle stage of a request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>RequestGroup.intent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category
+</t>
+  </si>
+  <si>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Indicates the level of authority/intentionality associated with the request and where the request fits into the workflow chain.</t>
+  </si>
+  <si>
+    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>Codes indicating the degree of authority/intentionality associated with a request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>RequestGroup.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the request should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>If missing, this request should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>RequestGroup.code</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://example.com/fhir/example/ValueSet/MeaningOrderVS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>RequestGroup.extension.value[x].id</t>
-  </si>
-  <si>
-    <t>RequestGroup.extension.value[x].extension</t>
-  </si>
-  <si>
-    <t>RequestGroup.extension.value[x].coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>RequestGroup.extension.value[x].coding.id</t>
-  </si>
-  <si>
-    <t>RequestGroup.extension.value[x].coding.extension</t>
-  </si>
-  <si>
-    <t>RequestGroup.extension.value[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://spms.min-saude/pe/top/extensions/med-request-modality</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>RequestGroup.extension.value[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>RequestGroup.extension.value[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>RequestGroup.extension.value[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>RequestGroup.extension.value[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>RequestGroup.extension.value[x].text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>RequestGroup.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>RequestGroup.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business identifier</t>
-  </si>
-  <si>
-    <t>Allows a service to provide a unique, business identifier for the request.</t>
-  </si>
-  <si>
-    <t>Allows identification of the request as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>RequestGroup.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>A canonical URL referencing a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this request.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>RequestGroup.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>A URL referencing an externally defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this request.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesUri</t>
-  </si>
-  <si>
-    <t>RequestGroup.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal, or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this request.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the request and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>RequestGroup.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-priorrenewed order</t>
-  </si>
-  <si>
-    <t>Request(s) replaced by this request</t>
-  </si>
-  <si>
-    <t>Completed or terminated request(s) whose function is taken by this new request.</t>
-  </si>
-  <si>
-    <t>The replacement could be because the initial request was immediately rejected (due to an issue) or because the previous request was completed, but the need for the action described by the request remains ongoing.</t>
-  </si>
-  <si>
-    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple requests.</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>RequestGroup.groupIdentifier</t>
-  </si>
-  <si>
-    <t>grouperid
-requisition</t>
-  </si>
-  <si>
-    <t>Composite request this is part of</t>
-  </si>
-  <si>
-    <t>A shared identifier common to all requests that were authorized more or less simultaneously by a single author, representing the identifier of the requisition, prescription or similar form.</t>
-  </si>
-  <si>
-    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition.  Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
-  </si>
-  <si>
-    <t>Some business processes need to know if multiple items were ordered as part of the same "prescription" or "requisition" for billing or other purposes.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>RequestGroup.status</t>
-  </si>
-  <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The current state of the request. For request groups, the status reflects the status of all the requests in the group.</t>
-  </si>
-  <si>
-    <t>Codes identifying the lifecycle stage of a request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>RequestGroup.intent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">category
-</t>
-  </si>
-  <si>
-    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>Indicates the level of authority/intentionality associated with the request and where the request fits into the workflow chain.</t>
-  </si>
-  <si>
-    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>Codes indicating the degree of authority/intentionality associated with a request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>RequestGroup.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the request should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>If missing, this request should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>RequestGroup.code</t>
   </si>
   <si>
     <t>What's being requested/ordered</t>
@@ -1880,7 +1674,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL87"/>
+  <dimension ref="A1:AL71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1889,8 +1683,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.09375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.50390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.7734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1913,7 +1707,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.22265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1926,7 +1720,7 @@
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="46.53125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3985,35 +3779,39 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>75</v>
       </c>
@@ -4061,19 +3859,19 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>75</v>
@@ -4082,12 +3880,12 @@
         <v>75</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>101</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4098,7 +3896,7 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>75</v>
@@ -4107,19 +3905,21 @@
         <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>75</v>
       </c>
@@ -4155,19 +3955,19 @@
         <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>111</v>
+        <v>201</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -4179,13 +3979,13 @@
         <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
@@ -4193,7 +3993,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4201,10 +4001,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>75</v>
@@ -4213,27 +4013,25 @@
         <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>75</v>
@@ -4275,33 +4073,33 @@
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>184</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4312,7 +4110,7 @@
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>75</v>
@@ -4321,16 +4119,16 @@
         <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4357,33 +4155,37 @@
         <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X23" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y23" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>75</v>
@@ -4392,31 +4194,29 @@
         <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>184</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>75</v>
@@ -4428,16 +4228,18 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>75</v>
       </c>
@@ -4461,11 +4263,13 @@
         <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y24" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>75</v>
@@ -4483,13 +4287,13 @@
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>75</v>
@@ -4498,29 +4302,29 @@
         <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>184</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>75</v>
@@ -4532,16 +4336,20 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4589,44 +4397,44 @@
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>100</v>
+        <v>224</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>75</v>
@@ -4635,21 +4443,23 @@
         <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>75</v>
       </c>
@@ -4685,45 +4495,45 @@
         <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4731,35 +4541,31 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4783,13 +4589,13 @@
         <v>75</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>75</v>
+        <v>242</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>75</v>
@@ -4807,13 +4613,13 @@
         <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>75</v>
@@ -4822,26 +4628,26 @@
         <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>84</v>
@@ -4850,22 +4656,24 @@
         <v>75</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>75</v>
       </c>
@@ -4874,7 +4682,7 @@
         <v>75</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>75</v>
@@ -4889,13 +4697,13 @@
         <v>75</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>75</v>
@@ -4913,10 +4721,10 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>84</v>
@@ -4925,32 +4733,32 @@
         <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>75</v>
@@ -4959,25 +4767,25 @@
         <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>105</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="Q29" t="s" s="2">
         <v>75</v>
       </c>
@@ -4997,57 +4805,57 @@
         <v>75</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>111</v>
+        <v>256</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5070,20 +4878,18 @@
         <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>126</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>75</v>
       </c>
@@ -5092,7 +4898,7 @@
         <v>75</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>75</v>
@@ -5131,7 +4937,7 @@
         <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5146,18 +4952,18 @@
         <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>232</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5177,20 +4983,18 @@
         <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>272</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>75</v>
@@ -5239,7 +5043,7 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5254,18 +5058,18 @@
         <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>238</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5285,21 +5089,19 @@
         <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>161</v>
+        <v>278</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>242</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>75</v>
       </c>
@@ -5347,7 +5149,7 @@
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5362,18 +5164,18 @@
         <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>244</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5393,21 +5195,19 @@
         <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>248</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>75</v>
       </c>
@@ -5455,7 +5255,7 @@
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5470,18 +5270,18 @@
         <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>75</v>
+        <v>288</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>250</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5501,23 +5301,19 @@
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5565,7 +5361,7 @@
         <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5580,18 +5376,18 @@
         <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>258</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5602,7 +5398,7 @@
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>75</v>
@@ -5611,23 +5407,19 @@
         <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>75</v>
       </c>
@@ -5675,13 +5467,13 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>75</v>
@@ -5690,22 +5482,22 @@
         <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>265</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5718,26 +5510,22 @@
         <v>75</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5785,7 +5573,7 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5797,21 +5585,21 @@
         <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>184</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5831,21 +5619,19 @@
         <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5893,7 +5679,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -5908,10 +5694,10 @@
         <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>277</v>
+        <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -5919,7 +5705,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5939,16 +5725,16 @@
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5999,7 +5785,7 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6011,10 +5797,10 @@
         <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>75</v>
@@ -6025,7 +5811,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6036,7 +5822,7 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>75</v>
@@ -6045,16 +5831,16 @@
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>99</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6105,37 +5891,37 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>286</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>288</v>
+        <v>103</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6154,18 +5940,18 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>289</v>
+        <v>104</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>290</v>
+        <v>105</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>75</v>
       </c>
@@ -6213,7 +5999,7 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>287</v>
+        <v>111</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6225,25 +6011,25 @@
         <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6256,25 +6042,25 @@
         <v>75</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>289</v>
+        <v>104</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>298</v>
+        <v>107</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>75</v>
@@ -6323,7 +6109,7 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>294</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6335,29 +6121,29 @@
         <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>75</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>302</v>
+        <v>75</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>84</v>
@@ -6369,23 +6155,19 @@
         <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>272</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6433,7 +6215,7 @@
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6448,7 +6230,7 @@
         <v>96</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>307</v>
+        <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>75</v>
@@ -6459,7 +6241,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6467,7 +6249,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>84</v>
@@ -6476,19 +6258,19 @@
         <v>75</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6515,13 +6297,13 @@
         <v>75</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>75</v>
@@ -6539,10 +6321,10 @@
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>84</v>
@@ -6554,10 +6336,10 @@
         <v>96</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>313</v>
+        <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>314</v>
+        <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6565,15 +6347,15 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>316</v>
+        <v>75</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>84</v>
@@ -6582,24 +6364,22 @@
         <v>75</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6608,7 +6388,7 @@
         <v>75</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>320</v>
+        <v>75</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>75</v>
@@ -6623,13 +6403,13 @@
         <v>75</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>321</v>
+        <v>75</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>322</v>
+        <v>75</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>75</v>
@@ -6647,10 +6427,10 @@
         <v>75</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>84</v>
@@ -6662,10 +6442,10 @@
         <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>323</v>
+        <v>75</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>324</v>
+        <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6673,7 +6453,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6696,22 +6476,20 @@
         <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="P45" t="s" s="2">
-        <v>328</v>
-      </c>
+      <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6731,31 +6509,31 @@
         <v>75</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>329</v>
+        <v>75</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -6770,10 +6548,10 @@
         <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>331</v>
+        <v>75</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>332</v>
+        <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6801,20 +6579,18 @@
         <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>336</v>
-      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>75</v>
@@ -6839,13 +6615,13 @@
         <v>75</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>75</v>
+        <v>260</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>75</v>
@@ -6878,10 +6654,10 @@
         <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>337</v>
+        <v>262</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>338</v>
+        <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6889,7 +6665,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6900,7 +6676,7 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>75</v>
@@ -6912,13 +6688,13 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6969,13 +6745,13 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>75</v>
@@ -6984,10 +6760,10 @@
         <v>96</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>344</v>
+        <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6995,7 +6771,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7006,7 +6782,7 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>75</v>
@@ -7018,13 +6794,13 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7075,13 +6851,13 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>75</v>
@@ -7090,10 +6866,10 @@
         <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -7101,7 +6877,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7112,7 +6888,7 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>75</v>
@@ -7124,15 +6900,17 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>75</v>
@@ -7181,13 +6959,13 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>75</v>
@@ -7196,10 +6974,10 @@
         <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>355</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>356</v>
+        <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>75</v>
@@ -7207,7 +6985,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7230,13 +7008,13 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>358</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>359</v>
+        <v>98</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>360</v>
+        <v>99</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7287,7 +7065,7 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>357</v>
+        <v>100</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7299,25 +7077,25 @@
         <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>361</v>
+        <v>75</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>362</v>
+        <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7336,15 +7114,17 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>364</v>
+        <v>105</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>75</v>
@@ -7393,7 +7173,7 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>363</v>
+        <v>111</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -7405,25 +7185,25 @@
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>366</v>
+        <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>75</v>
+        <v>317</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7436,22 +7216,26 @@
         <v>75</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>369</v>
+        <v>104</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>75</v>
       </c>
@@ -7499,7 +7283,7 @@
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7511,21 +7295,21 @@
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>371</v>
+        <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>75</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7533,10 +7317,10 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>75</v>
@@ -7548,15 +7332,17 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>373</v>
+        <v>161</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>75</v>
@@ -7581,13 +7367,13 @@
         <v>75</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>75</v>
+        <v>354</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>75</v>
@@ -7605,13 +7391,13 @@
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>75</v>
@@ -7620,7 +7406,7 @@
         <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>376</v>
+        <v>75</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
@@ -7631,7 +7417,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7642,7 +7428,7 @@
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>75</v>
@@ -7654,15 +7440,17 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>75</v>
@@ -7711,19 +7499,19 @@
         <v>75</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>381</v>
+        <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>75</v>
@@ -7737,7 +7525,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7748,7 +7536,7 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>75</v>
@@ -7760,13 +7548,13 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>86</v>
+        <v>310</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>98</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>99</v>
+        <v>363</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7817,19 +7605,19 @@
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>100</v>
+        <v>361</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>75</v>
@@ -7838,23 +7626,23 @@
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>75</v>
@@ -7866,17 +7654,15 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>75</v>
@@ -7925,19 +7711,19 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>75</v>
@@ -7951,11 +7737,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>385</v>
+        <v>103</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7968,26 +7754,24 @@
         <v>75</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>104</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>386</v>
+        <v>105</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>387</v>
+        <v>106</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="N57" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>75</v>
       </c>
@@ -8035,7 +7819,7 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>388</v>
+        <v>111</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8056,44 +7840,48 @@
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>184</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>75</v>
+        <v>317</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>390</v>
+        <v>318</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>75</v>
       </c>
@@ -8141,19 +7929,19 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>389</v>
+        <v>320</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>75</v>
@@ -8162,12 +7950,12 @@
         <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>75</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8175,7 +7963,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>84</v>
@@ -8190,13 +7978,13 @@
         <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8247,10 +8035,10 @@
         <v>75</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>84</v>
@@ -8273,7 +8061,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8281,7 +8069,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>84</v>
@@ -8293,16 +8081,16 @@
         <v>75</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8329,13 +8117,13 @@
         <v>75</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>75</v>
+        <v>373</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>75</v>
+        <v>374</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>75</v>
@@ -8353,10 +8141,10 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>84</v>
@@ -8379,7 +8167,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8399,16 +8187,16 @@
         <v>75</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>86</v>
+        <v>376</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8459,7 +8247,7 @@
         <v>75</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8485,7 +8273,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8508,13 +8296,13 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>161</v>
+        <v>380</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>326</v>
+        <v>381</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8541,13 +8329,13 @@
         <v>75</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>329</v>
+        <v>75</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>75</v>
@@ -8565,7 +8353,7 @@
         <v>75</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8580,7 +8368,7 @@
         <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>331</v>
+        <v>383</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>75</v>
@@ -8591,7 +8379,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8614,13 +8402,13 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>205</v>
+        <v>385</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8671,7 +8459,7 @@
         <v>75</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -8686,10 +8474,10 @@
         <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>75</v>
+        <v>389</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -8697,7 +8485,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8708,7 +8496,7 @@
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>75</v>
@@ -8720,13 +8508,13 @@
         <v>75</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>407</v>
+        <v>265</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8753,13 +8541,13 @@
         <v>75</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>75</v>
+        <v>393</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>75</v>
+        <v>394</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>75</v>
@@ -8777,13 +8565,13 @@
         <v>75</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>75</v>
@@ -8792,7 +8580,7 @@
         <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>75</v>
@@ -8803,7 +8591,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8814,7 +8602,7 @@
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>75</v>
@@ -8826,17 +8614,15 @@
         <v>75</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>378</v>
+        <v>161</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>75</v>
@@ -8861,13 +8647,13 @@
         <v>75</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>75</v>
+        <v>398</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>75</v>
+        <v>399</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>75</v>
@@ -8885,13 +8671,13 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>75</v>
@@ -8911,7 +8697,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8934,13 +8720,13 @@
         <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>98</v>
+        <v>401</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>99</v>
+        <v>402</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8967,13 +8753,13 @@
         <v>75</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>75</v>
+        <v>403</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>75</v>
@@ -8991,7 +8777,7 @@
         <v>75</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9003,7 +8789,7 @@
         <v>75</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>75</v>
@@ -9012,23 +8798,23 @@
         <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>75</v>
@@ -9040,17 +8826,15 @@
         <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>105</v>
+        <v>406</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>75</v>
@@ -9075,13 +8859,13 @@
         <v>75</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>75</v>
+        <v>408</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>75</v>
+        <v>409</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>75</v>
@@ -9099,19 +8883,19 @@
         <v>75</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>111</v>
+        <v>405</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>75</v>
@@ -9120,48 +8904,44 @@
         <v>75</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>385</v>
+        <v>75</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>75</v>
       </c>
@@ -9185,13 +8965,13 @@
         <v>75</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>75</v>
+        <v>413</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>75</v>
+        <v>414</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>75</v>
@@ -9209,19 +8989,19 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>75</v>
@@ -9230,12 +9010,12 @@
         <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>184</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9243,7 +9023,7 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>84</v>
@@ -9261,14 +9041,12 @@
         <v>161</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>75</v>
@@ -9293,13 +9071,13 @@
         <v>75</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>75</v>
@@ -9317,10 +9095,10 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>84</v>
@@ -9343,7 +9121,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9366,16 +9144,16 @@
         <v>75</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>425</v>
+        <v>219</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9425,7 +9203,7 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -9434,7 +9212,7 @@
         <v>84</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>75</v>
+        <v>424</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>96</v>
@@ -9451,7 +9229,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9474,13 +9252,13 @@
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>378</v>
+        <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9531,7 +9309,7 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -9540,7 +9318,7 @@
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>75</v>
+        <v>424</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>96</v>
@@ -9555,1712 +9333,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL87">
+  <autoFilter ref="A1:AL71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11270,7 +9344,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:39:56+00:00</t>
+    <t>2022-07-14T12:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:13:58+00:00</t>
+    <t>2022-07-14T12:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:15:20+00:00</t>
+    <t>2022-07-14T12:28:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:28:55+00:00</t>
+    <t>2022-09-22T18:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,45 +277,49 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>RequestGroup.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>RequestGroup.meta.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>RequestGroup.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>RequestGroup.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -366,10 +370,6 @@
   </si>
   <si>
     <t>RequestGroup.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -2184,13 +2184,13 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2241,7 +2241,7 @@
         <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -2262,16 +2262,16 @@
         <v>75</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2290,16 +2290,16 @@
         <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2337,19 +2337,19 @@
         <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
@@ -2361,7 +2361,7 @@
         <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>75</v>
@@ -2370,12 +2370,12 @@
         <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2398,7 +2398,7 @@
         <v>85</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>115</v>
@@ -3478,7 +3478,7 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>186</v>
@@ -3523,14 +3523,14 @@
         <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>188</v>
@@ -3545,7 +3545,7 @@
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>75</v>
@@ -3653,7 +3653,7 @@
         <v>193</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>75</v>
@@ -3761,7 +3761,7 @@
         <v>193</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>75</v>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3798,7 +3798,7 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>197</v>
@@ -3807,7 +3807,7 @@
         <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>199</v>
@@ -3871,7 +3871,7 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>75</v>
@@ -5834,13 +5834,13 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5891,7 +5891,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -5912,7 +5912,7 @@
         <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" hidden="true">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5940,16 +5940,16 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5999,7 +5999,7 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6011,7 +6011,7 @@
         <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>75</v>
@@ -6020,7 +6020,7 @@
         <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" hidden="true">
@@ -6048,7 +6048,7 @@
         <v>85</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>318</v>
@@ -6057,7 +6057,7 @@
         <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>199</v>
@@ -6121,7 +6121,7 @@
         <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>75</v>
@@ -6158,7 +6158,7 @@
         <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>322</v>
@@ -6264,7 +6264,7 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>325</v>
@@ -6370,7 +6370,7 @@
         <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>328</v>
@@ -6476,7 +6476,7 @@
         <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>331</v>
@@ -7008,13 +7008,13 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7065,7 +7065,7 @@
         <v>75</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7086,7 +7086,7 @@
         <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7114,16 +7114,16 @@
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7173,7 +7173,7 @@
         <v>75</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -7185,7 +7185,7 @@
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>75</v>
@@ -7194,7 +7194,7 @@
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" hidden="true">
@@ -7222,7 +7222,7 @@
         <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>318</v>
@@ -7231,7 +7231,7 @@
         <v>319</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>199</v>
@@ -7295,7 +7295,7 @@
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>75</v>
@@ -7654,13 +7654,13 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7711,7 +7711,7 @@
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -7732,7 +7732,7 @@
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" hidden="true">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7760,16 +7760,16 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7819,7 +7819,7 @@
         <v>75</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -7831,7 +7831,7 @@
         <v>75</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>75</v>
@@ -7840,7 +7840,7 @@
         <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" hidden="true">
@@ -7868,7 +7868,7 @@
         <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>318</v>
@@ -7877,7 +7877,7 @@
         <v>319</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>199</v>
@@ -7941,7 +7941,7 @@
         <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>75</v>
@@ -7978,7 +7978,7 @@
         <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>368</v>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="418">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/content-profile</t>
+    <t>http://example.com/fhir/example/StructureDefinition/content-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -39,7 +39,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>PEMHContent</t>
+    <t>PEMHRequestGroup</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T14:33:47+00:00</t>
+    <t>2023-02-09T20:39:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -290,7 +290,7 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
+    <t>ID lógico do pedido de referenciação no contexto FHIR</t>
   </si>
   <si>
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
@@ -392,7 +392,7 @@
 </t>
   </si>
   <si>
-    <t>When the resource version last changed</t>
+    <t>Indica a data da última alteração desse recurso.</t>
   </si>
   <si>
     <t>When the resource last changed - e.g. when the version changed.</t>
@@ -594,6 +594,9 @@
 </t>
   </si>
   <si>
+    <t>Extensão para indicar a via da receita prescrita</t>
+  </si>
+  <si>
     <t>RequestGroup.extension:MeaningOrder</t>
   </si>
   <si>
@@ -604,6 +607,9 @@
 </t>
   </si>
   <si>
+    <t>Extensão sobre a Modalidade de Prescrição. Receita com papel (RCP) ou receita sem papel (RSP) [MODALIDADE DE PRESCRIÇÃO]</t>
+  </si>
+  <si>
     <t>RequestGroup.modifierExtension</t>
   </si>
   <si>
@@ -699,7 +705,7 @@
 requisition</t>
   </si>
   <si>
-    <t>Composite request this is part of</t>
+    <t>Identificador local da prescrição. NÚMERO RECEITA LOCAL</t>
   </si>
   <si>
     <t>A shared identifier common to all requests that were authorized more or less simultaneously by a single author, representing the identifier of the requisition, prescription or similar form.</t>
@@ -717,7 +723,7 @@
     <t>RequestGroup.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | cancelled | completed | entered-in-error | unknown</t>
+    <t>A prescrição é criada com status active. Status para a anulação / cancelamento da prescrição: cancelled.</t>
   </si>
   <si>
     <t>The current state of the request. For request groups, the status reflects the status of all the requests in the group.</t>
@@ -1142,8 +1148,8 @@
     <t>RequestGroup.action.timing[x]</t>
   </si>
   <si>
-    <t>dateTime
-PeriodDurationRangeTiming</t>
+    <t xml:space="preserve">Period
+</t>
   </si>
   <si>
     <t>When the action should take place</t>
@@ -1152,7 +1158,23 @@
     <t>An optional value describing when the action should be performed.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Request.occurrence</t>
+  </si>
+  <si>
+    <t>RequestGroup.action.timing[x]:timingPeriod</t>
+  </si>
+  <si>
+    <t>timingPeriod</t>
+  </si>
+  <si>
+    <t>Data da linha da receita [DATA VALIDADE LINHA]</t>
   </si>
   <si>
     <t>RequestGroup.action.participant</t>
@@ -1267,7 +1289,11 @@
     <t>RequestGroup.action.resource</t>
   </si>
   <si>
-    <t>The target of the action</t>
+    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/med-request-profile)
+</t>
+  </si>
+  <si>
+    <t>Referência para um resource que contém informações da linha da receita</t>
   </si>
   <si>
     <t>The resource that is the target of the action (e.g. CommunicationRequest).</t>
@@ -1606,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AN69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1625,7 +1651,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.7890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.01953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1903,7 +1929,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>87</v>
@@ -3511,7 +3537,7 @@
         <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>181</v>
@@ -3594,13 +3620,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>179</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -3622,10 +3648,10 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>181</v>
@@ -3708,10 +3734,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3737,10 +3763,10 @@
         <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>110</v>
@@ -3793,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3822,10 +3848,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3848,17 +3874,17 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3907,7 +3933,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3922,24 +3948,24 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3962,13 +3988,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4019,7 +4045,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4034,7 +4060,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4048,14 +4074,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4074,17 +4100,17 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4133,7 +4159,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4148,7 +4174,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4162,14 +4188,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4188,19 +4214,19 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4249,7 +4275,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4264,7 +4290,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4278,14 +4304,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4295,7 +4321,7 @@
         <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>77</v>
@@ -4304,19 +4330,19 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4365,7 +4391,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4380,7 +4406,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4394,10 +4420,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4411,7 +4437,7 @@
         <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>88</v>
@@ -4423,13 +4449,13 @@
         <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4455,13 +4481,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4479,7 +4505,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>87</v>
@@ -4494,28 +4520,28 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4537,16 +4563,16 @@
         <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4556,7 +4582,7 @@
         <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>77</v>
@@ -4571,13 +4597,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4595,7 +4621,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>87</v>
@@ -4610,24 +4636,24 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4653,10 +4679,10 @@
         <v>155</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4664,7 +4690,7 @@
         <v>77</v>
       </c>
       <c r="Q27" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>77</v>
@@ -4685,13 +4711,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4709,7 +4735,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4724,24 +4750,24 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4764,13 +4790,13 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4821,7 +4847,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4836,24 +4862,24 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4876,13 +4902,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4933,7 +4959,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4948,24 +4974,24 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4988,13 +5014,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5045,7 +5071,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5060,24 +5086,24 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5100,13 +5126,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5157,7 +5183,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5172,24 +5198,24 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5212,13 +5238,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5269,7 +5295,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5284,24 +5310,24 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5324,13 +5350,13 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5381,7 +5407,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5396,7 +5422,7 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5410,10 +5436,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5436,13 +5462,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5493,7 +5519,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5505,7 +5531,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5522,10 +5548,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5634,10 +5660,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5748,14 +5774,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5777,10 +5803,10 @@
         <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>110</v>
@@ -5833,7 +5859,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5862,10 +5888,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5891,10 +5917,10 @@
         <v>100</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5945,7 +5971,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5974,10 +6000,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6003,10 +6029,10 @@
         <v>100</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6057,7 +6083,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6086,10 +6112,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6115,10 +6141,10 @@
         <v>100</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6169,7 +6195,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6198,10 +6224,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6227,10 +6253,10 @@
         <v>100</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6281,7 +6307,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6310,10 +6336,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6336,13 +6362,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6393,7 +6419,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6408,7 +6434,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6422,10 +6448,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6448,13 +6474,13 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6505,7 +6531,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6520,7 +6546,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6534,10 +6560,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6560,13 +6586,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6617,7 +6643,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6629,7 +6655,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6646,10 +6672,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6758,10 +6784,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6872,14 +6898,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6901,10 +6927,10 @@
         <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>110</v>
@@ -6957,7 +6983,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6986,10 +7012,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7015,13 +7041,13 @@
         <v>155</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7047,13 +7073,13 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>77</v>
@@ -7071,7 +7097,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
@@ -7100,10 +7126,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7129,10 +7155,10 @@
         <v>100</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7183,7 +7209,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7212,10 +7238,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7241,10 +7267,10 @@
         <v>100</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7295,7 +7321,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7324,10 +7350,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7353,13 +7379,13 @@
         <v>100</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7409,7 +7435,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7438,10 +7464,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7464,13 +7490,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7521,7 +7547,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7533,7 +7559,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7550,10 +7576,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7662,10 +7688,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7776,14 +7802,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7805,10 +7831,10 @@
         <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>110</v>
@@ -7861,7 +7887,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7890,10 +7916,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7919,10 +7945,10 @@
         <v>89</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7973,7 +7999,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>87</v>
@@ -8002,10 +8028,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8031,10 +8057,10 @@
         <v>155</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8061,13 +8087,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -8085,7 +8111,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>87</v>
@@ -8114,10 +8140,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8140,13 +8166,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8197,7 +8223,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8226,10 +8252,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8252,13 +8278,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8297,19 +8323,17 @@
         <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8324,7 +8348,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8338,12 +8362,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8352,7 +8378,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8364,13 +8390,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8421,13 +8447,13 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
@@ -8436,24 +8462,24 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8464,7 +8490,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8476,13 +8502,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>133</v>
+        <v>374</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8509,13 +8535,13 @@
         <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
@@ -8533,13 +8559,13 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
@@ -8548,24 +8574,24 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8588,13 +8614,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8621,13 +8647,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -8645,7 +8671,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8674,10 +8700,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8703,10 +8729,10 @@
         <v>155</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8733,13 +8759,13 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>77</v>
@@ -8757,7 +8783,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8786,10 +8812,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8815,10 +8841,10 @@
         <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8845,13 +8871,13 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>77</v>
@@ -8869,7 +8895,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8898,10 +8924,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8927,10 +8953,10 @@
         <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8957,13 +8983,13 @@
         <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>77</v>
@@ -8981,7 +9007,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9010,10 +9036,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9039,10 +9065,10 @@
         <v>155</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9069,13 +9095,13 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>77</v>
@@ -9093,7 +9119,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9122,10 +9148,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9148,17 +9174,15 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9183,13 +9207,13 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>407</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>77</v>
@@ -9207,7 +9231,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9216,7 +9240,7 @@
         <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
@@ -9236,10 +9260,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9250,7 +9274,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -9262,15 +9286,17 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>77</v>
+        <v>410</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9319,35 +9345,147 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AI68" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN68">
+  <autoFilter ref="A1:AN69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9357,7 +9495,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T20:39:01+00:00</t>
+    <t>2023-02-09T22:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T22:10:16+00:00</t>
+    <t>2023-02-10T09:10:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="422">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:10:53+00:00</t>
+    <t>2023-02-16T19:26:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -584,10 +584,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>RequestGroup.extension:duplicateOrder</t>
-  </si>
-  <si>
-    <t>duplicateOrder</t>
+    <t>RequestGroup.extension:PrescriptionDuplicate</t>
+  </si>
+  <si>
+    <t>PrescriptionDuplicate</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://spms.min-saude.pt/iop/extensions/prescription-duplicate}
@@ -597,6 +597,17 @@
     <t>Extensão para indicar a via da receita prescrita</t>
   </si>
   <si>
+    <t>Via da receita no caso de ser renovável (1, 2, 3, ...).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>RequestGroup.extension:MeaningOrder</t>
   </si>
   <si>
@@ -608,6 +619,9 @@
   </si>
   <si>
     <t>Extensão sobre a Modalidade de Prescrição. Receita com papel (RCP) ou receita sem papel (RSP) [MODALIDADE DE PRESCRIÇÃO]</t>
+  </si>
+  <si>
+    <t>Receita com papel (RCP) ou receita sem papel (RSP).</t>
   </si>
   <si>
     <t>RequestGroup.modifierExtension</t>
@@ -1643,7 +1657,7 @@
   <cols>
     <col min="1" max="1" width="50.50390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="50.50390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="20.66796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3540,7 +3554,7 @@
         <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3600,10 +3614,10 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>77</v>
@@ -3620,13 +3634,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>179</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -3648,13 +3662,13 @@
         <v>77</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3714,10 +3728,10 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>77</v>
@@ -3734,10 +3748,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3763,10 +3777,10 @@
         <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>110</v>
@@ -3819,7 +3833,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3848,10 +3862,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3874,17 +3888,17 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3933,7 +3947,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3948,24 +3962,24 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3988,13 +4002,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4045,7 +4059,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4060,7 +4074,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4074,14 +4088,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4100,17 +4114,17 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4159,7 +4173,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4174,7 +4188,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -4188,14 +4202,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4214,19 +4228,19 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4275,7 +4289,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4290,7 +4304,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4304,14 +4318,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4330,19 +4344,19 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4391,7 +4405,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4406,7 +4420,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4420,10 +4434,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4449,13 +4463,13 @@
         <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4481,31 +4495,31 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>87</v>
@@ -4520,28 +4534,28 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4563,16 +4577,16 @@
         <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4582,7 +4596,7 @@
         <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>77</v>
@@ -4597,13 +4611,13 @@
         <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>77</v>
@@ -4621,7 +4635,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>87</v>
@@ -4636,24 +4650,24 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4679,10 +4693,10 @@
         <v>155</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4690,7 +4704,7 @@
         <v>77</v>
       </c>
       <c r="Q27" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>77</v>
@@ -4711,31 +4725,31 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4750,24 +4764,24 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4790,13 +4804,13 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4847,7 +4861,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4862,24 +4876,24 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4902,13 +4916,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4959,7 +4973,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4974,24 +4988,24 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5014,13 +5028,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5071,7 +5085,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5086,24 +5100,24 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5126,13 +5140,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5183,7 +5197,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5198,24 +5212,24 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5238,13 +5252,13 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5295,7 +5309,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5310,24 +5324,24 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5350,13 +5364,13 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5407,7 +5421,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5422,7 +5436,7 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5436,10 +5450,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5462,13 +5476,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5519,7 +5533,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5531,7 +5545,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5548,10 +5562,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5660,10 +5674,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5774,14 +5788,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5803,10 +5817,10 @@
         <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>110</v>
@@ -5859,7 +5873,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5888,10 +5902,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5917,10 +5931,10 @@
         <v>100</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5971,7 +5985,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6000,10 +6014,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6029,10 +6043,10 @@
         <v>100</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6083,7 +6097,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6112,10 +6126,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6141,10 +6155,10 @@
         <v>100</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6195,7 +6209,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6224,10 +6238,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6253,10 +6267,10 @@
         <v>100</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6307,7 +6321,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6336,10 +6350,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6362,13 +6376,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6419,7 +6433,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6434,7 +6448,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6448,10 +6462,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6474,13 +6488,13 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6531,7 +6545,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6546,7 +6560,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6560,10 +6574,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6586,13 +6600,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6643,7 +6657,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6655,7 +6669,7 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6672,10 +6686,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6784,10 +6798,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6898,14 +6912,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6927,10 +6941,10 @@
         <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>110</v>
@@ -6983,7 +6997,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7012,10 +7026,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7041,13 +7055,13 @@
         <v>155</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7073,31 +7087,31 @@
         <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>87</v>
@@ -7126,10 +7140,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7155,10 +7169,10 @@
         <v>100</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7209,7 +7223,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7238,10 +7252,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7267,10 +7281,10 @@
         <v>100</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7321,7 +7335,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7350,10 +7364,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7379,13 +7393,13 @@
         <v>100</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7435,7 +7449,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7464,10 +7478,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7490,13 +7504,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7547,7 +7561,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7559,7 +7573,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7576,10 +7590,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7688,10 +7702,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7802,14 +7816,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7831,10 +7845,10 @@
         <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>110</v>
@@ -7887,7 +7901,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7916,10 +7930,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7945,10 +7959,10 @@
         <v>89</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7999,7 +8013,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>87</v>
@@ -8028,10 +8042,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8057,10 +8071,10 @@
         <v>155</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8087,31 +8101,31 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Z57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>87</v>
@@ -8140,10 +8154,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8166,13 +8180,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8223,7 +8237,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8252,10 +8266,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8278,13 +8292,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8323,17 +8337,17 @@
         <v>77</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8348,7 +8362,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8362,13 +8376,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8390,13 +8404,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8447,7 +8461,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8462,7 +8476,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8476,10 +8490,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8502,13 +8516,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8559,7 +8573,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8574,24 +8588,24 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8617,10 +8631,10 @@
         <v>133</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8650,28 +8664,28 @@
         <v>137</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Z62" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8700,10 +8714,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8729,10 +8743,10 @@
         <v>155</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8759,31 +8773,31 @@
         <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Z63" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8812,10 +8826,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8841,10 +8855,10 @@
         <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8871,31 +8885,31 @@
         <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Z64" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8924,10 +8938,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8953,10 +8967,10 @@
         <v>155</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8983,31 +8997,31 @@
         <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Z65" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9036,10 +9050,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9065,10 +9079,10 @@
         <v>155</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9095,31 +9109,31 @@
         <v>77</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Z66" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9148,10 +9162,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9177,10 +9191,10 @@
         <v>155</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9207,31 +9221,31 @@
         <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Z67" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9260,10 +9274,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9286,16 +9300,16 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9345,7 +9359,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9354,7 +9368,7 @@
         <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
@@ -9374,10 +9388,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9400,13 +9414,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9457,7 +9471,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9466,7 +9480,7 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T19:26:47+00:00</t>
+    <t>2023-02-16T20:28:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T20:28:10+00:00</t>
+    <t>2023-02-16T21:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-content-profile.xlsx
+++ b/StructureDefinition-content-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T21:17:23+00:00</t>
+    <t>2023-02-16T21:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
